--- a/Assets/GameResources/GameData/GameData.xlsx
+++ b/Assets/GameResources/GameData/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="797" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="797" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="必读！合作条约" sheetId="18" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <t>小野冢小町</t>
   </si>
   <si>
-    <t>部署：依次选择两个单位，依次拉取至同排最右侧</t>
+    <t>部署：选择两个单位，依次拉取至自身右侧</t>
   </si>
   <si>
     <t>死神</t>
@@ -2511,11 +2511,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[=1]&quot;☑&quot;;[=0]&quot;☐&quot;;0;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2604,10 +2604,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2620,21 +2650,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2653,6 +2677,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2688,39 +2720,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2733,16 +2734,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2949,7 +2949,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2961,7 +3057,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2973,67 +3093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3045,73 +3105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,6 +3245,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3263,7 +3278,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3287,22 +3313,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3330,17 +3341,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3349,10 +3349,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3361,133 +3361,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="54" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="54" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="53" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5717,8 +5717,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K2:K1048576">
-      <formula1>"水,火,风,土,任意"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
+      <formula1>"正体,衍生"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
+      <formula1>"单位,特殊"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J6 J11 J12 J17 J2:J5 J7:J10 J13:J16 J18:J1048576">
       <formula1>"领袖,金,银,铜"</formula1>
@@ -5726,17 +5729,14 @@
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="输入内容有误" error="请选择勾选或取消勾选" sqref="P22 P23 P24 P25 P26 P29 P30 P31 P41 P1048576 P2:P3 P4:P7 P8:P11 P12:P14 P15:P16 P17:P21 P27:P28 P32:P35 P36:P40 P42:P53 P54:P70 P71:P1048566 P1048567:P1048569 P1048570:P1048575">
       <formula1>IF(TRUE,OR(P2=0,P2=1),"Checkbox")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N2:N1048576">
-      <formula1>"正体,衍生"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="H2:H1048576">
-      <formula1>"单位,特殊"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="I2:I1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L2:L1048576">
       <formula1>"我方,敌方"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K2:K1048576">
+      <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5752,10 +5752,10 @@
   </sheetPr>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7540,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="28.8" spans="1:17">
+    <row r="44" spans="1:17">
       <c r="A44" s="54">
         <v>1</v>
       </c>
@@ -9252,20 +9252,20 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="K18 K31 K32 K38 K39 K40 K41 K42 K43 K44 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K58 K59 K60 K61 K62 K63 K64 K65 K66 K80 K3:K17 K20:K30 K33:K37 K67:K68 K69:K79 K81:K84 K85:K92 K93:K97 K126:K1048576">
       <formula1>"中立,道教,佛教,科学,神道教"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N43 N44 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N80 N3:N17 N20:N30 N33:N37 N68:N79 N81:N84 N85:N92 N93:N97 N126:N1048576">
-      <formula1>"我方,敌方"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="M30 M31 M32 M38 M39 M40 M41 M42 M43 M44 M46 M47 M48 M49 M50 M51 M52 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M67 M68 M72 M73 M79 M80 M81 M82 M83 M84 M3:M18 M20:M24 M25:M29 M33:M37 M69:M71 M74:M78 M85:M92 M93:M97 M126:M1048576">
       <formula1>"水,火,风,土,任意"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L43 L44 L46 L47 L48 L49 L50 L51 L52 L53 L54 L60 L61 L66 L67 L68 L69 L70 L71 L72 L78 L79 L80 L3:L18 L20:L23 L25:L30 L35:L37 L55:L56 L57:L59 L62:L65 L73:L74 L75:L77 L81:L82 L83:L84 L85:L92 L94:L97 L126:L1048576">
-      <formula1>"领袖,金,银,铜"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="N18 N31 N32 N38 N39 N40 N41 N42 N43 N44 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N80 N3:N17 N20:N30 N33:N37 N68:N79 N81:N84 N85:N92 N93:N97 N126:N1048576">
+      <formula1>"我方,敌方"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="P31 P32 P38 P39 P40 P41 P42 P43 P44 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P66 P67 P3:P18 P20:P30 P33:P37 P68:P84 P85:P92 P93:P97 P126:P1048576">
       <formula1>"正体,衍生"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="J31 J32 J33 J38 J39 J40 J41 J42 J43 J44 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58 J59 J60 J61 J62 J63 J64 J65 J66 J80 J81 J82 J83 J84 J3:J18 J20:J30 J34:J37 J67:J73 J74:J75 J76:J79 J85:J92 J93:J97 J126:J1048576">
       <formula1>"单位,特殊"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="错误提示" error="请输入下拉列表中的一个值" sqref="L24 L31 L32 L33 L34 L38 L39 L40 L41 L42 L43 L44 L46 L47 L48 L49 L50 L51 L52 L53 L54 L60 L61 L66 L67 L68 L69 L70 L71 L72 L78 L79 L80 L3:L18 L20:L23 L25:L30 L35:L37 L55:L56 L57:L59 L62:L65 L73:L74 L75:L77 L81:L82 L83:L84 L85:L92 L94:L97 L126:L1048576">
+      <formula1>"领袖,金,银,铜"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9517,8 +9517,8 @@
   </sheetPr>
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28:F29"/>
     </sheetView>
